--- a/envo/document/data/list/7.xlsx
+++ b/envo/document/data/list/7.xlsx
@@ -16,99 +16,138 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
-  <si>
-    <t>Giường - Bed</t>
-  </si>
-  <si>
-    <t>Khăn trải giường - Sheet</t>
-  </si>
-  <si>
-    <t>Gối - Pillow</t>
-  </si>
-  <si>
-    <t>Bàn nhỏ đầu giường - Bedside table</t>
-  </si>
-  <si>
-    <t>Đèn bàn - Table lamp</t>
-  </si>
-  <si>
-    <t>Bức tranh - Picture</t>
-  </si>
-  <si>
-    <t>Tủ quần áo - Wardrobe</t>
-  </si>
-  <si>
-    <t>Gương - Mirror</t>
-  </si>
-  <si>
-    <t>Bàn trang điểm - Dressing table</t>
-  </si>
-  <si>
-    <t>Tủ ngăn kéo - Chest of drawers</t>
-  </si>
-  <si>
-    <t>Thảm trải sàn - Rug</t>
-  </si>
-  <si>
-    <t>Móc treo đồ - Hanger</t>
-  </si>
-  <si>
-    <t>Hộp đựng trang sức - Jewelry box</t>
-  </si>
-  <si>
-    <t>Lược chải đầu - Comb</t>
-  </si>
-  <si>
-    <t>Bàn chải tóc - Hairbrush</t>
-  </si>
-  <si>
-    <t>Đồng hồ báo thức - Alarm clock</t>
-  </si>
-  <si>
-    <t>Đầu giường - Headboard</t>
-  </si>
-  <si>
-    <t>Vỏ gối - Pillowcase</t>
-  </si>
-  <si>
-    <t>Đệm - Mattress</t>
-  </si>
-  <si>
-    <t>Chăn - Blanket</t>
-  </si>
-  <si>
-    <t>Chân giường - Footboard</t>
-  </si>
-  <si>
-    <t>Công tắc đèn - Light switch</t>
-  </si>
-  <si>
-    <t>Đồng hồ treo tường - Clock</t>
-  </si>
-  <si>
-    <t>Giường đôi - Double bed</t>
-  </si>
-  <si>
-    <t>Giường đơn - Single bed</t>
-  </si>
-  <si>
-    <t>Mành sáo - Blinds</t>
-  </si>
-  <si>
-    <t>Rèm cửa - Curtains</t>
-  </si>
-  <si>
-    <t>Giấy dán tường - Wallpaper</t>
-  </si>
-  <si>
-    <t>Bình hoa - Vase</t>
-  </si>
-  <si>
-    <t>Đèn pin - Torch</t>
-  </si>
-  <si>
-    <t>Nến - Candle</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+  <si>
+    <t>Tủ lạnh - Fridge</t>
+  </si>
+  <si>
+    <t>Bếp điện - Cooker</t>
+  </si>
+  <si>
+    <t>Máy rửa chén - Dishwasher</t>
+  </si>
+  <si>
+    <t>Tủ đá - Freezer</t>
+  </si>
+  <si>
+    <t>Ấm đun nước - Kettle</t>
+  </si>
+  <si>
+    <t>Lò nướng - Oven</t>
+  </si>
+  <si>
+    <t>Lò vi sóng - Microwave oven</t>
+  </si>
+  <si>
+    <t>Bếp gas - Gas cooker</t>
+  </si>
+  <si>
+    <t>Chén - Cup</t>
+  </si>
+  <si>
+    <t>Tô - Bowl</t>
+  </si>
+  <si>
+    <t>Ly thủy tinh - Glass</t>
+  </si>
+  <si>
+    <t>Lọ thủy tinh - Jar</t>
+  </si>
+  <si>
+    <t>Đĩa - Plate</t>
+  </si>
+  <si>
+    <t>Ấm trà - Teapot</t>
+  </si>
+  <si>
+    <t>Ly uống rượu - Wine glass</t>
+  </si>
+  <si>
+    <t>Thớt - Chopping board</t>
+  </si>
+  <si>
+    <t>Cái rổ - Colander</t>
+  </si>
+  <si>
+    <t>Chảo - Pan</t>
+  </si>
+  <si>
+    <t>Máy ép hoa quả - Juicer</t>
+  </si>
+  <si>
+    <t>Cái giá múc canh - Ladle</t>
+  </si>
+  <si>
+    <t>Nồi - Saucepan</t>
+  </si>
+  <si>
+    <t>Miếng rửa bát - Scourer</t>
+  </si>
+  <si>
+    <t>Cái rây - Sieve</t>
+  </si>
+  <si>
+    <t>Cái kẹp - Tongs</t>
+  </si>
+  <si>
+    <t>Cái mâm - Tray</t>
+  </si>
+  <si>
+    <t>Cái đánh trứng - Whisk</t>
+  </si>
+  <si>
+    <t>Cái muỗng - Spoon</t>
+  </si>
+  <si>
+    <t>Vĩ nướng - Grill</t>
+  </si>
+  <si>
+    <t>Phích cắm điện - Plug</t>
+  </si>
+  <si>
+    <t>Kệ - Shelf</t>
+  </si>
+  <si>
+    <t>Bồn rửa - Sink</t>
+  </si>
+  <si>
+    <t>Nước rửa bát - Washing-up liquid</t>
+  </si>
+  <si>
+    <t>Dao - Knife</t>
+  </si>
+  <si>
+    <t>Nĩa - Fork</t>
+  </si>
+  <si>
+    <t>Muỗng nhỏ - Teaspoon</t>
+  </si>
+  <si>
+    <t>Đôi đũa - Chopsticks</t>
+  </si>
+  <si>
+    <t>Bật lửa - Burner</t>
+  </si>
+  <si>
+    <t>Tủ bếp - Kitchen cabinet</t>
+  </si>
+  <si>
+    <t>Cây chổi - Brush</t>
+  </si>
+  <si>
+    <t>Kệ đựng bát - Dish drainer</t>
+  </si>
+  <si>
+    <t>Hộp bằng sắt - Can</t>
+  </si>
+  <si>
+    <t>Hộp bằng thiết - Tin</t>
+  </si>
+  <si>
+    <t>Hộp bằng giấy - Box</t>
+  </si>
+  <si>
+    <t>Chai thủy tinh - Bottle</t>
   </si>
 </sst>
 </file>
@@ -440,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A31"/>
+  <dimension ref="A1:A44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -469,42 +508,42 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:1">
@@ -519,7 +558,7 @@
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:1">
@@ -539,72 +578,137 @@
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/envo/document/data/list/7.xlsx
+++ b/envo/document/data/list/7.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>Tủ lạnh - Fridge</t>
   </si>
@@ -148,6 +148,9 @@
   </si>
   <si>
     <t>Chai thủy tinh - Bottle</t>
+  </si>
+  <si>
+    <t>Dầu ăn - Oil</t>
   </si>
 </sst>
 </file>
@@ -479,10 +482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A44"/>
+  <dimension ref="A1:A45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -709,6 +712,11 @@
     <row r="44" spans="1:1">
       <c r="A44" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/envo/document/data/list/7.xlsx
+++ b/envo/document/data/list/7.xlsx
@@ -42,9 +42,6 @@
     <t>Bếp gas - Gas cooker</t>
   </si>
   <si>
-    <t>Chén - Cup</t>
-  </si>
-  <si>
     <t>Tô - Bowl</t>
   </si>
   <si>
@@ -81,9 +78,6 @@
     <t>Nồi - Saucepan</t>
   </si>
   <si>
-    <t>Miếng rửa bát - Scourer</t>
-  </si>
-  <si>
     <t>Cái rây - Sieve</t>
   </si>
   <si>
@@ -126,9 +120,6 @@
     <t>Đôi đũa - Chopsticks</t>
   </si>
   <si>
-    <t>Bật lửa - Burner</t>
-  </si>
-  <si>
     <t>Tủ bếp - Kitchen cabinet</t>
   </si>
   <si>
@@ -141,16 +132,25 @@
     <t>Hộp bằng sắt - Can</t>
   </si>
   <si>
-    <t>Hộp bằng thiết - Tin</t>
-  </si>
-  <si>
     <t>Hộp bằng giấy - Box</t>
   </si>
   <si>
-    <t>Chai thủy tinh - Bottle</t>
-  </si>
-  <si>
-    <t>Dầu ăn - Oil</t>
+    <t>coc uong tra - Cup</t>
+  </si>
+  <si>
+    <t>Chen an com - rice bowl</t>
+  </si>
+  <si>
+    <t>Chai thủy tinh - glass Bottle</t>
+  </si>
+  <si>
+    <t>Miếng rửa bát - sponge</t>
+  </si>
+  <si>
+    <t>Bật lửa - lighter</t>
+  </si>
+  <si>
+    <t>Dầu ăn - cooking Oil</t>
   </si>
 </sst>
 </file>
@@ -484,8 +484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -536,182 +536,182 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="45" spans="1:1">
